--- a/biology/Médecine/Classe_pharmacologique/Classe_pharmacologique.xlsx
+++ b/biology/Médecine/Classe_pharmacologique/Classe_pharmacologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe pharmacologique, ou classe médicamenteuse, désigne la catégorie utilisée pour classer les médicaments selon certains critères.
-Il n'existe pas de critère unique pour catégoriser les médicaments. Selon le contexte, on les catégorisera par[1] :
+Il n'existe pas de critère unique pour catégoriser les médicaments. Selon le contexte, on les catégorisera par :
 les récepteurs sur lesquels ils agissent (exemple : bêta-bloquant, immunosuppresseur).
 la substance active (principe actif) ou classe chimique (exemple : amine, opiacé, corticoïde).
 l'action visée (exemple : diurétique, antalgique, antipsychotique, antibiotique).
-La Classification ATC, très employée dans la recherche, a cinq niveaux, dont le premier concerne le domaine médical concerné (par exemple dermatologie ou système respiratoire), et le dernier correspond aux principes actifs. Elle est maintenue par l'OMS depuis 1976[2].
+La Classification ATC, très employée dans la recherche, a cinq niveaux, dont le premier concerne le domaine médical concerné (par exemple dermatologie ou système respiratoire), et le dernier correspond aux principes actifs. Elle est maintenue par l'OMS depuis 1976.
 </t>
         </is>
       </c>
